--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Case No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,32 +65,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>screehshot\case2_link1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screehshot\case1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screehshot\case2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screehshot\case1_link1.png
+screehshot\case1_link2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Link Template Screenshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huaweip20pro_case1_link1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huaweip20pro_cas2_link1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case1_link1.png
-2_screehshot\case1_link2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case2_link1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case2.png</t>
+    <t>Link Template Screenshot Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huaweip20pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1_link1.png
+case1_link2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case2_link1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -455,14 +464,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="31.4140625" customWidth="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="3" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="31.4140625" customWidth="1"/>
+    <col min="9" max="9" width="48.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,25 +482,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -502,21 +514,24 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -527,17 +542,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -65,23 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>screehshot\case2_link1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screehshot\case1_link1.png
-screehshot\case1_link2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Link Template Screenshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +83,23 @@
   </si>
   <si>
     <t>case2_link1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot\case1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot\case2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot\case1_link1.png
+screenshot\case1_link2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot\case2_link1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A727" sqref="A4:XFD727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -482,10 +482,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -514,20 +514,20 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -542,18 +542,18 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2"/>
     </row>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -2,104 +2,88 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\wechatbot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Case No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Send Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply</t>
+  </si>
+  <si>
+    <t>Link Template Screenshot Folder</t>
+  </si>
+  <si>
+    <t>Link Template Screenshot</t>
+  </si>
+  <si>
+    <t>Reply From Script</t>
+  </si>
+  <si>
+    <t>Link From Script</t>
+  </si>
+  <si>
+    <t>Screenshot From Script</t>
+  </si>
+  <si>
+    <t>Link Screenshot From Script</t>
+  </si>
+  <si>
+    <t>Reply Cost Time From Script</t>
   </si>
   <si>
     <t>大众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我猜您想了解以下信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reply From Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screenshot From Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link From Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Screenshot From Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Template Screenshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Template Screenshot Folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huaweip20pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
   </si>
   <si>
     <t>case1_link1.png
 case1_link2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case2_link1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>screenshot\case1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenshot\case2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>screenshot\case1_link1.png
 screenshot\case1_link2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>case2_link1.png</t>
+  </si>
+  <si>
+    <t>screenshot\case2.png</t>
   </si>
   <si>
     <t>screenshot\case2_link1.png</t>
+  </si>
+  <si>
+    <t>TBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,13 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A727" sqref="A4:XFD727"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -468,10 +455,11 @@
     <col min="6" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="31.4140625" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,83 +467,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -45,12 +45,6 @@
     <t>Screenshot From Script</t>
   </si>
   <si>
-    <t>Link Screenshot From Script</t>
-  </si>
-  <si>
-    <t>Reply Cost Time From Script</t>
-  </si>
-  <si>
     <t>大众</t>
   </si>
   <si>
@@ -67,23 +61,32 @@
     <t>screenshot\case1.png</t>
   </si>
   <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>case2_link1.png</t>
+  </si>
+  <si>
+    <t>screenshot\case2.png</t>
+  </si>
+  <si>
+    <t>screenshot\case2_link1.png</t>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reply Cost Time From Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link Screenshot From Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>screenshot\case1_link1.png
 screenshot\case1_link2.png</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>case2_link1.png</t>
-  </si>
-  <si>
-    <t>screenshot\case2.png</t>
-  </si>
-  <si>
-    <t>screenshot\case2_link1.png</t>
-  </si>
-  <si>
-    <t>TBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -485,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.3">
@@ -499,26 +502,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
@@ -528,24 +531,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -1,133 +1,384 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\wechatbot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>Case No.</t>
-  </si>
-  <si>
-    <t>Send Message</t>
-  </si>
-  <si>
-    <t>Reply</t>
-  </si>
-  <si>
-    <t>Link Template Screenshot Folder</t>
-  </si>
-  <si>
-    <t>Link Template Screenshot</t>
-  </si>
-  <si>
-    <t>Reply From Script</t>
-  </si>
-  <si>
-    <t>Link From Script</t>
-  </si>
-  <si>
-    <t>Screenshot From Script</t>
-  </si>
-  <si>
-    <t>大众</t>
-  </si>
-  <si>
-    <t>我猜您想了解以下信息</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>case1_link1.png
-case1_link2.png</t>
-  </si>
-  <si>
-    <t>screenshot\case1.png</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>case2_link1.png</t>
-  </si>
-  <si>
-    <t>screenshot\case2.png</t>
-  </si>
-  <si>
-    <t>screenshot\case2_link1.png</t>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reply Cost Time From Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Screenshot From Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenshot\case1_link1.png
-screenshot\case1_link2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="22">
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="33">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,35 +401,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="10" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="18" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="10" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="8" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="一般" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - 輔色6" xfId="1"/>
+    <cellStyle builtinId="51" name="40% - 輔色6" xfId="2"/>
+    <cellStyle builtinId="53" name="說明文字" xfId="3"/>
+    <cellStyle builtinId="50" name="20% - 輔色6" xfId="4"/>
+    <cellStyle builtinId="8" name="超連結" xfId="5"/>
+    <cellStyle builtinId="30" name="20% - 輔色1" xfId="6"/>
+    <cellStyle builtinId="49" name="輔色6" xfId="7"/>
+    <cellStyle builtinId="48" name="60% - 輔色5" xfId="8"/>
+    <cellStyle builtinId="46" name="20% - 輔色5" xfId="9"/>
+    <cellStyle builtinId="45" name="輔色5" xfId="10"/>
+    <cellStyle builtinId="42" name="20% - 輔色4" xfId="11"/>
+    <cellStyle builtinId="24" name="連結的儲存格" xfId="12"/>
+    <cellStyle builtinId="7" name="貨幣[0]" xfId="13"/>
+    <cellStyle builtinId="41" name="輔色4" xfId="14"/>
+    <cellStyle builtinId="21" name="輸出" xfId="15"/>
+    <cellStyle builtinId="39" name="40% - 輔色3" xfId="16"/>
+    <cellStyle builtinId="37" name="輔色3" xfId="17"/>
+    <cellStyle builtinId="35" name="40% - 輔色2" xfId="18"/>
+    <cellStyle builtinId="33" name="輔色2" xfId="19"/>
+    <cellStyle builtinId="32" name="60% - 輔色1" xfId="20"/>
+    <cellStyle builtinId="31" name="40% - 輔色1" xfId="21"/>
+    <cellStyle builtinId="34" name="20% - 輔色2" xfId="22"/>
+    <cellStyle builtinId="27" name="壞" xfId="23"/>
+    <cellStyle builtinId="11" name="警告文字" xfId="24"/>
+    <cellStyle builtinId="43" name="40% - 輔色4" xfId="25"/>
+    <cellStyle builtinId="26" name="好" xfId="26"/>
+    <cellStyle builtinId="23" name="檢查儲存格" xfId="27"/>
+    <cellStyle builtinId="25" name="加總" xfId="28"/>
+    <cellStyle builtinId="38" name="20% - 輔色3" xfId="29"/>
+    <cellStyle builtinId="22" name="計算方式" xfId="30"/>
+    <cellStyle builtinId="47" name="40% - 輔色5" xfId="31"/>
+    <cellStyle builtinId="16" name="標題 1" xfId="32"/>
+    <cellStyle builtinId="19" name="標題 4" xfId="33"/>
+    <cellStyle builtinId="9" name="已瀏覽過的超連結" xfId="34"/>
+    <cellStyle builtinId="10" name="備註" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 輔色3" xfId="36"/>
+    <cellStyle builtinId="4" name="貨幣" xfId="37"/>
+    <cellStyle builtinId="18" name="標題 3" xfId="38"/>
+    <cellStyle builtinId="29" name="輔色1" xfId="39"/>
+    <cellStyle builtinId="17" name="標題 2" xfId="40"/>
+    <cellStyle builtinId="6" name="千分位[0]" xfId="41"/>
+    <cellStyle builtinId="15" name="標題" xfId="42"/>
+    <cellStyle builtinId="5" name="百分比" xfId="43"/>
+    <cellStyle builtinId="44" name="60% - 輔色4" xfId="44"/>
+    <cellStyle builtinId="36" name="60% - 輔色2" xfId="45"/>
+    <cellStyle builtinId="28" name="中性" xfId="46"/>
+    <cellStyle builtinId="20" name="輸入" xfId="47"/>
+    <cellStyle builtinId="3" name="千分位" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -225,7 +757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,7 +792,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,128 +966,191 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="31.4140625" customWidth="1"/>
-    <col min="9" max="9" width="48.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="13.75"/>
+    <col customWidth="1" max="5" min="3" width="33.6634615384615"/>
+    <col customWidth="1" max="7" min="6" width="23"/>
+    <col customWidth="1" max="8" min="8" width="31.4134615384615"/>
+    <col customWidth="1" max="9" min="9" width="48.6634615384615"/>
+    <col customWidth="1" max="10" min="10" width="26"/>
+    <col customWidth="1" max="11" min="11" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row customHeight="1" ht="34" r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Send Message</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reply</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Link Template Screenshot Folder</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link Template Screenshot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Reply From Script</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Link From Script</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Screenshot From Script</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Link Screenshot From Script</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Reply Cost Time From Script</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>我猜您想了解以下信息</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>case1_link1.png
+case1_link2.png</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fHome?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=contract%26utm_term=还款计划_合同信息&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 查询合同信息与还款计划表&lt;/a&gt;
+👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fOverduePayment%2fIndex?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=overdue%26utm_term=还款进度_逾期合同还款&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 逾期合同还款&lt;/a&gt;
+👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fPayTrial?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=prepayment%26utm_term=还款进度_提前还款查询&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 提前还款报价&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>screenshot/case1.png</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>screenshot/case1_link1.png
+screenshot/case1_link2.png</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>3.00854206085</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="17" r="3">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>我猜您想了解以下信息</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>case2_link1.png</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fHome?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=contract%26utm_term=还款计划_合同信息&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 查询合同信息与还款计划表&lt;/a&gt;
+👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fOverduePayment%2fIndex?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=overdue%26utm_term=还款进度_逾期合同还款&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 逾期合同还款&lt;/a&gt;
+👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fPayTrial?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=prepayment%26utm_term=还款进度_提前还款查询&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 提前还款报价&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>screenshot/case2.png</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>screenshot/case2_link1.png</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>2.78065299988</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -1076,9 +1076,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fHome?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=contract%26utm_term=还款计划_合同信息&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 查询合同信息与还款计划表&lt;/a&gt;
-👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fOverduePayment%2fIndex?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=overdue%26utm_term=还款进度_逾期合同还款&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 逾期合同还款&lt;/a&gt;
-👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fPayTrial?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=prepayment%26utm_term=还款进度_提前还款查询&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 提前还款报价&lt;/a&gt;</t>
+          <t>该公众号提供的服务出现故障，请稍后再试</t>
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
@@ -1089,13 +1087,13 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>screenshot/case1_link1.png
-screenshot/case1_link2.png</t>
+          <t>No link template matched for: screenshot/case1_link1.png
+No link template matched for: screenshot/case1_link2.png</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>3.00854206085</t>
+          <t>5.79765295982</t>
         </is>
       </c>
       <c r="K2" s="3" t="n"/>
@@ -1126,9 +1124,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fHome?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=contract%26utm_term=还款计划_合同信息&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 查询合同信息与还款计划表&lt;/a&gt;
-👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fOverduePayment%2fIndex?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=overdue%26utm_term=还款进度_逾期合同还款&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 逾期合同还款&lt;/a&gt;
-👉 &lt;a href="https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https%3a%2f%2fwechat.volkswagen-finance-china.com.cn%2fCCG%2fPayTrial?utm_source=chatbot%26utm_medium=cpc%26utm_content=textlink%26utm_campaign=prepayment%26utm_term=还款进度_提前还款查询&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect"&gt;- 提前还款报价&lt;/a&gt;</t>
+          <t>该公众号提供的服务出现故障，请稍后再试</t>
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
@@ -1139,12 +1135,12 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>screenshot/case2_link1.png</t>
+          <t>No link template matched for: screenshot/case2_link1.png</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>2.78065299988</t>
+          <t>6.11811590195</t>
         </is>
       </c>
       <c r="K3" s="3" t="n"/>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>该公众号提供的服务出现故障，请稍后再试</t>
+          <t>有问题也可以给我留言哟，为您服务是我的荣幸~</t>
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
@@ -1087,13 +1087,13 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>No link template matched for: screenshot/case1_link1.png
-No link template matched for: screenshot/case1_link2.png</t>
+          <t>screenshot/case1_link1.png
+screenshot/case1_link2.png</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>5.79765295982</t>
+          <t>7.09709382057</t>
         </is>
       </c>
       <c r="K2" s="3" t="n"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>该公众号提供的服务出现故障，请稍后再试</t>
+          <t>有问题也可以给我留言哟，为您服务是我的荣幸~</t>
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
@@ -1135,12 +1135,12 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>No link template matched for: screenshot/case2_link1.png</t>
+          <t>screenshot/case2_link1.png</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>6.11811590195</t>
+          <t>9.78348684311</t>
         </is>
       </c>
       <c r="K3" s="3" t="n"/>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -1093,7 +1093,7 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>7.09709382057</t>
+          <t>6.32194185257</t>
         </is>
       </c>
       <c r="K2" s="3" t="n"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>9.78348684311</t>
+          <t>2.97105002403</t>
         </is>
       </c>
       <c r="K3" s="3" t="n"/>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -1074,28 +1074,15 @@
 case1_link2.png</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>有问题也可以给我留言哟，为您服务是我的荣幸~</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>screenshot/case1.png</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>screenshot/case1_link1.png
-screenshot/case1_link2.png</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>6.32194185257</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
       <c r="K2" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="17" r="3">
@@ -1122,27 +1109,15 @@
           <t>case2_link1.png</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>有问题也可以给我留言哟，为您服务是我的荣幸~</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="inlineStr">
         <is>
           <t>screenshot/case2.png</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>screenshot/case2_link1.png</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>2.97105002403</t>
-        </is>
-      </c>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
       <c r="K3" s="3" t="n"/>
     </row>
   </sheetData>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Case No.</t>
   </si>
@@ -50,16 +50,6 @@
   </si>
   <si>
     <t>你好</t>
-  </si>
-  <si>
-    <t>我猜您想了解以下信息</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>case1_link1.png
-case1_link2.png</t>
   </si>
   <si>
     <t>您好，我是您的小助手融融。如下是我们的主要服务内容，点击即可进入功能页面：
@@ -69,6 +59,13 @@
 有问题也可以给我留言哟，为您服务是我的荣幸~</t>
   </si>
   <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>case1_link1.png
+case1_link2.png</t>
+  </si>
+  <si>
     <t>https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https://wechat.volkswagen-finance-china.com.cn/CCG/Home?utm_source=chatbot&amp;utm_medium=cpc&amp;utm_content=textlink&amp;utm_campaign=contract&amp;utm_term=还款计划_合同信息&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect
 https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https://wechat.volkswagen-finance-china.com.cn/CCG/OverduePayment/Index?utm_source=chatbot&amp;utm_medium=cpc&amp;utm_content=textlink&amp;utm_campaign=overdue&amp;utm_term=还款进度_逾期合同还款&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect
 https://open.weixin.qq.com/connect/oauth2/authorize?appid=wxc48ed8d2ff9e52fd&amp;redirect_uri=https://wechat.volkswagen-finance-china.com.cn/CCG/PayTrial?utm_source=chatbot&amp;utm_medium=cpc&amp;utm_content=textlink&amp;utm_campaign=prepayment&amp;utm_term=还款进度_提前还款查询&amp;response_type=code&amp;scope=snsapi_base&amp;state=1#wechat_redirect</t>
@@ -81,7 +78,18 @@
 screenshot/case1_link2.png</t>
   </si>
   <si>
-    <t>7.16799402237</t>
+    <t>7.69949603081</t>
+  </si>
+  <si>
+    <t>大众</t>
+  </si>
+  <si>
+    <t>您好，我是您的小助手融融。如下是我们的主要服务内容，点击即可进入功能页面：
+? - 查询合同信息与还款计划表
+? - 逾期合同还款
+? - 提前还款报价
+有问题也可以给我留言哟，为您服务是我的荣幸。
+如急需联络人工客服，烦请拨打我司客户服务热线：010-65897766 （工作日 9:00 - 18:00）。</t>
   </si>
   <si>
     <t>case2_link1.png</t>
@@ -93,7 +101,7 @@
     <t>screenshot/case2_link1.png</t>
   </si>
   <si>
-    <t>6.75750517845</t>
+    <t>7.25128817558</t>
   </si>
 </sst>
 </file>
@@ -101,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,6 +131,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -131,36 +207,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,101 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,55 +297,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,25 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,91 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,36 +519,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +554,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,151 +586,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1078,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1136,19 +1144,19 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -1157,31 +1165,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3"/>
     </row>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,51 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="14080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+  <si>
+    <t>Case 编号</t>
+  </si>
+  <si>
+    <t>发送的消息</t>
+  </si>
+  <si>
+    <t>期望回复的消息</t>
+  </si>
+  <si>
+    <t>链接模板截图文件夹</t>
+  </si>
+  <si>
+    <t>链接模板截图</t>
+  </si>
+  <si>
+    <t>[脚本]实际回复消息</t>
+  </si>
+  <si>
+    <t>[脚本]回复消息中的链接</t>
+  </si>
+  <si>
+    <t>[脚本]截图</t>
+  </si>
+  <si>
+    <t>[脚本]点击回复消息中链接后的截图</t>
+  </si>
+  <si>
+    <t>[脚本]回复消息所花时间</t>
+  </si>
+  <si>
+    <t>[脚本/对比C列和F列]结果</t>
+  </si>
   <si>
     <t>TBD</t>
   </si>
@@ -249,77 +282,16 @@
     <t>8.75692200661</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Case </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送的消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望回复的消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接模板截图文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接模板截图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[脚本]实际回复消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[脚本]回复消息中的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[脚本]截图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[脚本]点击回复消息中链接后的截图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[脚本]回复消息所花时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[脚本/对比C列和F列]结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>系统[IOS/Android]</t>
   </si>
   <si>
     <t>公众号名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
   <si>
     <t>大众汽车金融中国测试号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统[IOS/Android]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
   </si>
 </sst>
 </file>
@@ -362,7 +334,6 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,9 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -720,40 +688,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -761,31 +729,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
@@ -795,31 +763,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -829,31 +797,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="3"/>
@@ -863,31 +831,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
@@ -897,31 +865,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
@@ -931,31 +899,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
@@ -965,31 +933,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
@@ -999,31 +967,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1033,31 +1001,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1067,31 +1035,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
@@ -1101,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
@@ -1135,31 +1103,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
@@ -1169,31 +1137,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
@@ -1203,31 +1171,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
@@ -1237,31 +1205,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
@@ -1271,31 +1239,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1305,31 +1273,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
@@ -1339,31 +1307,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
@@ -1373,31 +1341,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
@@ -1413,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1425,18 +1393,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14480"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14300"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,44 +48,43 @@
     <font>
       <name val="新細明體"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -99,17 +98,18 @@
     </font>
     <font>
       <name val="新細明體"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,29 +117,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -153,6 +130,28 @@
     </font>
     <font>
       <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -162,23 +161,9 @@
     <font>
       <name val="新細明體"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,8 +174,23 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -199,13 +199,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,25 +277,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,19 +355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,37 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,61 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -413,6 +425,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -428,17 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,6 +479,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -470,164 +509,137 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="13" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="8" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="12" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
@@ -642,23 +654,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -675,7 +687,9 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="33" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="35" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="一般" xfId="0"/>
@@ -1064,14 +1078,15 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="13.75"/>
     <col customWidth="1" max="5" min="3" width="33.6634615384615"/>
-    <col customWidth="1" max="7" min="6" width="23"/>
+    <col customWidth="1" max="6" min="6" width="23"/>
+    <col customWidth="1" max="7" min="7" width="62.8173076923077"/>
     <col customWidth="1" max="8" min="8" width="31.4134615384615"/>
     <col customWidth="1" max="9" min="9" width="48.6634615384615"/>
     <col customWidth="1" max="10" min="10" width="26"/>
@@ -1164,13 +1179,23 @@
           <t>huaweip20pro</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>case1_link1.png
-case1_link2.png</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>您好，我是您的小助手融融。如下是我们的主要服务内容，点击即可进入功能页面：
+👉 - 查询合同与还款计划表
+👉 - 逾期合同还款
+👉 - 提前还款报价
+有问题也可以给我留言哟，为您服务是我的荣幸~</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://w.url.cn/s/AbVuhbC
+https://w.url.cn/s/Ape0IfF
+https://w.url.cn/s/Aao0DQu</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>screenshot/case1.png</t>
@@ -1178,12 +1203,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>在30s内获取回复信息反应时间失败,请参考截图</t>
-        </is>
-      </c>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>Failed</t>
+          <t>2.869178056716919</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1193,17 +1218,15 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>大众</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>您好，我是您的小助手融融。如下是我们的主要服务内容，点击即可进入功能页面：
-👉 - 查询合同信息与还款计划表
-👉 - 逾期合同还款
-👉 - 提前还款报价
-有问题也可以给我留言哟，为您服务是我的荣幸。
-如急需联络人工客服，烦请拨打我司客户服务热线：010-65897766 （工作日 9:00 - 18:00）。</t>
+          <t>在大众金融公众号上传续保保单</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">签合同时的身份证要到期了怎么办？
+1. 与我无瓜，放任不管
+2. 将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com
+</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1211,12 +1234,21 @@
           <t>huaweip20pro</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>case2_link1.png</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">签合同时的身份证要到期了怎么办？
+1. 与我无瓜，放任不管
+2. 将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>weixin://bizmsgmenu?msgmenucontent=与我无瓜，放任不管&amp;msgmenuid=1
+weixin://bizmsgmenu?msgmenucontent=将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com&amp;msgmenuid=1</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>screenshot/case2.png</t>
@@ -1224,12 +1256,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>在30s内获取回复信息反应时间失败,请参考截图</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>Failed</t>
+          <t>2.3055360317230225</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/test_case_example.xlsx
+++ b/test_case_example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14300"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14300" windowWidth="28000"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,6 +40,34 @@
     </font>
     <font>
       <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -47,8 +75,32 @@
     </font>
     <font>
       <name val="新細明體"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -61,15 +113,39 @@
     </font>
     <font>
       <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -84,8 +160,25 @@
     <font>
       <name val="新細明體"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,99 +189,6 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -211,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,11 +425,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,30 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -483,190 +522,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="23" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="167">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>huaweip20pro</t>
+          <t>iphone6</t>
         </is>
       </c>
       <c r="E2" s="4" t="n"/>
@@ -1189,13 +1189,6 @@
 有问题也可以给我留言哟，为您服务是我的荣幸~</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://w.url.cn/s/AbVuhbC
-https://w.url.cn/s/Ape0IfF
-https://w.url.cn/s/Aao0DQu</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>screenshot/case1.png</t>
@@ -1203,7 +1196,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.869178056716919</t>
+          <t>3.117058038711548</t>
         </is>
       </c>
       <c r="K2" s="8" t="inlineStr">
@@ -1223,30 +1216,22 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">签合同时的身份证要到期了怎么办？
+          <t>签合同时的身份证要到期了怎么办？
 1. 与我无瓜，放任不管
-2. 将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com
-</t>
+2. 将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>huaweip20pro</t>
+          <t>iphone6</t>
         </is>
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">签合同时的身份证要到期了怎么办？
+          <t>签合同时的身份证要到期了怎么办？
 1. 与我无瓜，放任不管
-2. 将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>weixin://bizmsgmenu?msgmenucontent=与我无瓜，放任不管&amp;msgmenuid=1
-weixin://bizmsgmenu?msgmenucontent=将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com&amp;msgmenuid=1</t>
+2. 将新的身份证复印件/扫描件发送至vwkefu@vwfsag.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1256,7 +1241,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.3055360317230225</t>
+          <t>3.1220638751983643</t>
         </is>
       </c>
       <c r="K3" s="8" t="inlineStr">
@@ -1280,7 +1265,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1304,7 +1289,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>IOS</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
